--- a/data/Italy_ages_raw.xlsx
+++ b/data/Italy_ages_raw.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
@@ -338,6 +344,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -455,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CW101"/>
+  <dimension ref="A1:CW102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,8 +477,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>438.877</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -574,901 +581,1008 @@
       <c r="CW1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>438.877</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>460.023</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>479.113</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>496.228</v>
+        <v>479.113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>508.304</v>
+        <v>496.228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>522.573</v>
+        <v>508.304</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>535.055</v>
+        <v>522.573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>545.813</v>
+        <v>535.055</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>554.906</v>
+        <v>545.813</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>562.684</v>
+        <v>554.906</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>569.498</v>
+        <v>562.684</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>573.962</v>
+        <v>569.498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>575.56</v>
+        <v>573.962</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>575.219</v>
+        <v>575.56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>574.574</v>
+        <v>575.219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>573.526</v>
+        <v>574.574</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>572.94</v>
+        <v>573.526</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>573.489</v>
+        <v>572.94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>575.039</v>
+        <v>573.489</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>576.525</v>
+        <v>575.039</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>577.845</v>
+        <v>576.525</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>581.605</v>
+        <v>577.845</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>588.894</v>
+        <v>581.605</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>598.549</v>
+        <v>588.894</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>608.428</v>
+        <v>598.549</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>619.093</v>
+        <v>608.428</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>628.869</v>
+        <v>619.093</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>636.748</v>
+        <v>628.869</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>643.587</v>
+        <v>636.748</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>651.608</v>
+        <v>643.587</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>660.795</v>
+        <v>651.608</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>669.66</v>
+        <v>660.795</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>677.824</v>
+        <v>669.66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>686.134</v>
+        <v>677.824</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>695.495</v>
+        <v>686.134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>705.341</v>
+        <v>695.495</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>719.171</v>
+        <v>705.341</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>738.699</v>
+        <v>719.171</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>762.248</v>
+        <v>738.699</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>785.376</v>
+        <v>762.248</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>807.711</v>
+        <v>785.376</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>833.262</v>
+        <v>807.711</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>863.169</v>
+        <v>833.262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>894.92</v>
+        <v>863.169</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>925.253</v>
+        <v>894.92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>955.288</v>
+        <v>925.253</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>977.49</v>
+        <v>955.288</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>987.919</v>
+        <v>977.49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>989.854</v>
+        <v>987.919</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>990.299</v>
+        <v>989.854</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>987.6</v>
+        <v>990.299</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>983.717</v>
+        <v>987.6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>980.249</v>
+        <v>983.717</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>975.778</v>
+        <v>980.249</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>968.479</v>
+        <v>975.778</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>960.146</v>
+        <v>968.479</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>944.168</v>
+        <v>960.146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>917.533</v>
+        <v>944.168</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>884.231</v>
+        <v>917.533</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>851.267</v>
+        <v>884.231</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>817.245</v>
+        <v>851.267</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>787.88</v>
+        <v>817.245</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>766.731</v>
+        <v>787.88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>751.432</v>
+        <v>766.731</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>734.61</v>
+        <v>751.432</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>716.003</v>
+        <v>734.61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>704.055</v>
+        <v>716.003</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>701.67</v>
+        <v>704.055</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>704.503</v>
+        <v>701.67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>706.997</v>
+        <v>704.503</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>712.31</v>
+        <v>706.997</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>704.699</v>
+        <v>712.31</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>676.419</v>
+        <v>704.699</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>635.473</v>
+        <v>676.419</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>595.952</v>
+        <v>635.473</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>553.056</v>
+        <v>595.952</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>522.103</v>
+        <v>553.056</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>511.502</v>
+        <v>522.103</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>512.897</v>
+        <v>511.502</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>510.637</v>
+        <v>512.897</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>509.195</v>
+        <v>510.637</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>496.433</v>
+        <v>509.195</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>465.163</v>
+        <v>496.433</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>422.038</v>
+        <v>465.163</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>381.103</v>
+        <v>422.038</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>339.799</v>
+        <v>381.103</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>301.028</v>
+        <v>339.799</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>267.732</v>
+        <v>301.028</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>238.293</v>
+        <v>267.732</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>205.758</v>
+        <v>238.293</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>179.295</v>
+        <v>205.758</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>156.788</v>
+        <v>179.295</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>129.057</v>
+        <v>156.788</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>96.253</v>
+        <v>129.057</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>73.364</v>
+        <v>96.253</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>63.539</v>
+        <v>73.364</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>52.768</v>
+        <v>63.539</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>38.689</v>
+        <v>52.768</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>21.305</v>
+        <v>38.689</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>12.14</v>
+        <v>21.305</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="0" t="n">
         <v>15.968</v>
       </c>
     </row>
